--- a/Files/公司名单.xlsx
+++ b/Files/公司名单.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philip\Notes\技术笔记\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22878397-5C31-41C2-A87B-0CDEFC2792ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496E33-05B6-4EBC-8D21-220D3C6396A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$209</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$66</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -291,209 +291,254 @@
     <t>埃斯顿自动化</t>
   </si>
   <si>
+    <t>汇川科技</t>
+  </si>
+  <si>
+    <t>新凯来</t>
+  </si>
+  <si>
+    <t>有限私有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优必选</t>
+  </si>
+  <si>
+    <t>机器人运动控制算法工程师</t>
+  </si>
+  <si>
+    <t>足式机器人</t>
+  </si>
+  <si>
+    <t>已投</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无人机、相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像处理实习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Engineer Intern</t>
+  </si>
+  <si>
+    <t>ICT Software Intern</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Intern, Data &amp; AI</t>
+  </si>
+  <si>
+    <t>一轮面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被拒</t>
+  </si>
+  <si>
+    <t>算法优化算法工程师</t>
+  </si>
+  <si>
+    <t>嵌入式软件开发工程师</t>
+  </si>
+  <si>
+    <t>导航算法工程师</t>
+  </si>
+  <si>
+    <t>速腾聚创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人、传感器</t>
+  </si>
+  <si>
+    <t>机器人控制算法</t>
+  </si>
+  <si>
+    <t>建图导航</t>
+  </si>
+  <si>
+    <t>算法实习生</t>
+  </si>
+  <si>
+    <t>测试实习生</t>
+  </si>
+  <si>
+    <t>电动车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尼韦尔</t>
+  </si>
+  <si>
+    <t>特斯拉</t>
+  </si>
+  <si>
+    <t>达妙</t>
+  </si>
+  <si>
+    <t>大然</t>
+  </si>
+  <si>
+    <t>高擎</t>
+  </si>
+  <si>
+    <t>库犸</t>
+  </si>
+  <si>
+    <t>中车</t>
+  </si>
+  <si>
+    <t>国有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>载人无人机</t>
+  </si>
+  <si>
+    <t>飞控算法工程师</t>
+  </si>
+  <si>
+    <t>机器人软件工程师</t>
+  </si>
+  <si>
+    <t>电子设备配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股份私有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人运动规划</t>
+  </si>
+  <si>
+    <t>机器人嵌入式开发</t>
+  </si>
+  <si>
+    <t>机器人感知</t>
+  </si>
+  <si>
+    <t>笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;D HW EAD</t>
+  </si>
+  <si>
+    <t>助听器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿圆科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宠物机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智元机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天智航</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> /</t>
+  </si>
+  <si>
+    <t>ST Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无校园招聘岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>珞石机器人</t>
-  </si>
-  <si>
-    <t>汇川科技</t>
-  </si>
-  <si>
-    <t>新凯来</t>
-  </si>
-  <si>
-    <t>有限私有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优必选</t>
-  </si>
-  <si>
-    <t>机器人运动控制算法工程师</t>
-  </si>
-  <si>
-    <t>足式机器人</t>
-  </si>
-  <si>
-    <t>已投</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无人机、相机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图像处理实习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Engineer Intern</t>
-  </si>
-  <si>
-    <t>ICT Software Intern</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>Intern, Data &amp; AI</t>
-  </si>
-  <si>
-    <t>一轮面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被拒</t>
-  </si>
-  <si>
-    <t>算法优化算法工程师</t>
-  </si>
-  <si>
-    <t>嵌入式软件开发工程师</t>
-  </si>
-  <si>
-    <t>导航算法工程师</t>
-  </si>
-  <si>
-    <t>速腾聚创</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人、传感器</t>
-  </si>
-  <si>
-    <t>机器人控制算法</t>
-  </si>
-  <si>
-    <t>建图导航</t>
-  </si>
-  <si>
-    <t>算法实习生</t>
-  </si>
-  <si>
-    <t>测试实习生</t>
-  </si>
-  <si>
-    <t>电动车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霍尼韦尔</t>
-  </si>
-  <si>
-    <t>特斯拉</t>
-  </si>
-  <si>
-    <t>达妙</t>
-  </si>
-  <si>
-    <t>大然</t>
-  </si>
-  <si>
-    <t>高擎</t>
-  </si>
-  <si>
-    <t>库犸</t>
-  </si>
-  <si>
-    <t>中车</t>
-  </si>
-  <si>
-    <t>国有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>载人无人机</t>
-  </si>
-  <si>
-    <t>飞控算法工程师</t>
-  </si>
-  <si>
-    <t>机器人软件工程师</t>
-  </si>
-  <si>
-    <t>电子设备配件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>股份私有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人运动规划</t>
-  </si>
-  <si>
-    <t>机器人嵌入式开发</t>
-  </si>
-  <si>
-    <t>机器人感知</t>
-  </si>
-  <si>
-    <t>笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>R&amp;D HW EAD</t>
-  </si>
-  <si>
-    <t>助听器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿圆科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宠物机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智元机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天智航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> /</t>
-  </si>
-  <si>
-    <t>ST Technology</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫地机器人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新时达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥比中光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科沃斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新松机器人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博实科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云鲸智能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃夫特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极智嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓斯达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -928,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I209"/>
+  <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -944,9 +989,10 @@
     <col min="6" max="6" width="13.77734375" style="10" customWidth="1"/>
     <col min="7" max="8" width="13.77734375" style="19" customWidth="1"/>
     <col min="9" max="9" width="15.109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="42.21875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -966,249 +1012,309 @@
         <v>6</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>41</v>
+      <c r="J1" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>79</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="8">
+        <v>45766</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8">
+        <v>45766</v>
+      </c>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8">
+        <v>45766</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="9">
+        <v>45736</v>
+      </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
+      <c r="I5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="8">
-        <v>45766</v>
-      </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="9">
+        <v>45705</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
       <c r="I6" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="8">
-        <v>45766</v>
-      </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F7" s="9">
+        <v>45761</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
       <c r="I7" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8">
-        <v>45766</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+        <v>91</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="9">
+        <v>45761</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
       <c r="I8" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>91</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="9">
+        <v>45761</v>
+      </c>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="9">
+        <v>45722</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
       <c r="H10" s="16"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="I10" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="9">
+        <v>45744</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="8">
-        <v>45748</v>
-      </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="8">
+        <v>45748</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1322,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>21</v>
@@ -1228,909 +1334,952 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
       <c r="I13" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="9">
+        <v>45735</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="9"/>
+        <v>48</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9">
+        <v>45723</v>
+      </c>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>43</v>
+      <c r="I15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8">
+        <v>45784</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="9">
+        <v>45754</v>
+      </c>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>80</v>
+      <c r="I17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>88</v>
+        <v>133</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>94</v>
       </c>
       <c r="F18" s="9">
-        <v>45735</v>
+        <v>45754</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="9"/>
+        <v>83</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F19" s="9">
+        <v>45754</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="9"/>
+      <c r="I19" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="9">
+        <v>45754</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>80</v>
+      <c r="I20" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>87</v>
+        <v>96</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F21" s="9">
-        <v>45722</v>
-      </c>
-      <c r="G21" s="18">
-        <v>1</v>
-      </c>
+        <v>45757</v>
+      </c>
+      <c r="G21" s="16"/>
       <c r="H21" s="16"/>
-      <c r="I21" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>80</v>
+      <c r="I21" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="F22" s="9">
-        <v>45723</v>
+        <v>45757</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="9">
+        <v>45774</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="9">
+        <v>45774</v>
+      </c>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="9">
+        <v>45780</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>80</v>
+        <v>127</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="9">
+        <v>45780</v>
+      </c>
       <c r="G26" s="16"/>
       <c r="H26" s="16"/>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="8">
-        <v>45784</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="I26" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F27" s="9">
+        <v>45754</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
       <c r="I27" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>81</v>
       </c>
       <c r="F28" s="9">
-        <v>45736</v>
+        <v>45754</v>
       </c>
       <c r="G28" s="16"/>
       <c r="H28" s="16"/>
-      <c r="I28" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="I28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="9">
+        <v>45754</v>
+      </c>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>80</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="9"/>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="9"/>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>47</v>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="9">
-        <v>45705</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="9">
-        <v>45744</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="9"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>116</v>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="9">
-        <v>45761</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
-      <c r="I35" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>116</v>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="9">
-        <v>45761</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>116</v>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="9">
-        <v>45761</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C38" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="9"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C39" s="4" t="s">
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F39" s="9">
-        <v>45754</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
-      <c r="I39" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="9"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="4"/>
-    </row>
-    <row r="41" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J40" s="4"/>
+    </row>
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="9"/>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J41" s="4"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="9"/>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
       <c r="I42" s="4"/>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J42" s="4"/>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="4"/>
+        <v>33</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="9"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="4"/>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="9"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
-      <c r="I44" s="4"/>
-    </row>
-    <row r="45" spans="1:9" s="5" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" s="5" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+        <v>39</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="9"/>
       <c r="G45" s="16"/>
       <c r="H45" s="16"/>
       <c r="I45" s="4"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J45" s="4"/>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="9"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16"/>
       <c r="I46" s="4"/>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="9"/>
       <c r="G47" s="16"/>
       <c r="H47" s="16"/>
       <c r="I47" s="4"/>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="9"/>
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
       <c r="I48" s="4"/>
-    </row>
-    <row r="49" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F49" s="9">
-        <v>45754</v>
-      </c>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="9"/>
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
-      <c r="I49" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>116</v>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="9">
-        <v>45754</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E50" s="4"/>
+      <c r="F50" s="9"/>
       <c r="G50" s="16"/>
       <c r="H50" s="16"/>
-      <c r="I50" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>66</v>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F51" s="9">
-        <v>45754</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="9"/>
       <c r="G51" s="16"/>
       <c r="H51" s="16"/>
-      <c r="I51" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
-        <v>96</v>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" s="9">
-        <v>45757</v>
-      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="9"/>
       <c r="G52" s="16"/>
       <c r="H52" s="16"/>
-      <c r="I52" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>96</v>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+    </row>
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="9">
-        <v>45757</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="E53" s="4"/>
+      <c r="F53" s="9"/>
       <c r="G53" s="16"/>
       <c r="H53" s="16"/>
-      <c r="I53" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>111</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="9"/>
       <c r="G54" s="16"/>
       <c r="H54" s="16"/>
       <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>130</v>
+      <c r="J54" s="4"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="9"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16"/>
       <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="9">
-        <v>45774</v>
-      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="9"/>
       <c r="G56" s="16"/>
       <c r="H56" s="16"/>
-      <c r="I56" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+    </row>
+    <row r="57" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57" s="9">
-        <v>45774</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="9"/>
       <c r="G57" s="16"/>
       <c r="H57" s="16"/>
-      <c r="I57" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+    </row>
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>60</v>
@@ -2142,142 +2291,119 @@
       <c r="G58" s="16"/>
       <c r="H58" s="16"/>
       <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>73</v>
+      <c r="J58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="11" t="s">
+        <v>137</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="9">
-        <v>45780</v>
-      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="9"/>
       <c r="G59" s="16"/>
       <c r="H59" s="16"/>
       <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>128</v>
+      <c r="J59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="9">
-        <v>45780</v>
-      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="9"/>
       <c r="G60" s="16"/>
       <c r="H60" s="16"/>
       <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>68</v>
+      <c r="J60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="9">
-        <v>45754</v>
-      </c>
+      <c r="C61" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="9"/>
       <c r="G61" s="16"/>
       <c r="H61" s="16"/>
-      <c r="I61" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>81</v>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="9"/>
       <c r="G62" s="16"/>
       <c r="H62" s="16"/>
       <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>64</v>
+      <c r="J62" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F63" s="9">
-        <v>45754</v>
-      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="16"/>
       <c r="H63" s="16"/>
-      <c r="I63" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11" t="s">
-        <v>129</v>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="9"/>
       <c r="G64" s="16"/>
       <c r="H64" s="16"/>
       <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -2285,33 +2411,33 @@
       <c r="G65" s="16"/>
       <c r="H65" s="16"/>
       <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="F66" s="9">
-        <v>45754</v>
-      </c>
+      <c r="C66" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="9"/>
       <c r="G66" s="16"/>
       <c r="H66" s="16"/>
-      <c r="I66" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -2319,9 +2445,12 @@
       <c r="G67" s="16"/>
       <c r="H67" s="16"/>
       <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
@@ -2330,9 +2459,12 @@
       <c r="G68" s="16"/>
       <c r="H68" s="16"/>
       <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -2341,9 +2473,12 @@
       <c r="G69" s="16"/>
       <c r="H69" s="16"/>
       <c r="I69" s="4"/>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -2352,9 +2487,12 @@
       <c r="G70" s="16"/>
       <c r="H70" s="16"/>
       <c r="I70" s="4"/>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
+      <c r="J70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -2363,9 +2501,12 @@
       <c r="G71" s="16"/>
       <c r="H71" s="16"/>
       <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
+      <c r="J71" s="4"/>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -2374,9 +2515,12 @@
       <c r="G72" s="16"/>
       <c r="H72" s="16"/>
       <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
+      <c r="J72" s="4"/>
+    </row>
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -2385,9 +2529,12 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
+      <c r="J73" s="4"/>
+    </row>
+    <row r="74" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>145</v>
+      </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -2396,9 +2543,12 @@
       <c r="G74" s="16"/>
       <c r="H74" s="16"/>
       <c r="I74" s="4"/>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
+      <c r="J74" s="4"/>
+    </row>
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -2407,8 +2557,9 @@
       <c r="G75" s="16"/>
       <c r="H75" s="16"/>
       <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J75" s="4"/>
+    </row>
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -2418,8 +2569,9 @@
       <c r="G76" s="16"/>
       <c r="H76" s="16"/>
       <c r="I76" s="4"/>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J76" s="4"/>
+    </row>
+    <row r="77" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -2429,8 +2581,9 @@
       <c r="G77" s="16"/>
       <c r="H77" s="16"/>
       <c r="I77" s="4"/>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J77" s="4"/>
+    </row>
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -2440,8 +2593,9 @@
       <c r="G78" s="16"/>
       <c r="H78" s="16"/>
       <c r="I78" s="4"/>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J78" s="4"/>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -2451,8 +2605,9 @@
       <c r="G79" s="16"/>
       <c r="H79" s="16"/>
       <c r="I79" s="4"/>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J79" s="4"/>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -2462,8 +2617,9 @@
       <c r="G80" s="16"/>
       <c r="H80" s="16"/>
       <c r="I80" s="4"/>
-    </row>
-    <row r="81" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J80" s="4"/>
+    </row>
+    <row r="81" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -2473,8 +2629,9 @@
       <c r="G81" s="16"/>
       <c r="H81" s="16"/>
       <c r="I81" s="4"/>
-    </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="4"/>
+    </row>
+    <row r="82" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -2484,8 +2641,9 @@
       <c r="G82" s="16"/>
       <c r="H82" s="16"/>
       <c r="I82" s="4"/>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J82" s="4"/>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -2495,8 +2653,9 @@
       <c r="G83" s="16"/>
       <c r="H83" s="16"/>
       <c r="I83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J83" s="4"/>
+    </row>
+    <row r="84" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -2506,8 +2665,9 @@
       <c r="G84" s="16"/>
       <c r="H84" s="16"/>
       <c r="I84" s="4"/>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J84" s="4"/>
+    </row>
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -2517,8 +2677,9 @@
       <c r="G85" s="16"/>
       <c r="H85" s="16"/>
       <c r="I85" s="4"/>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J85" s="4"/>
+    </row>
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -2528,8 +2689,9 @@
       <c r="G86" s="16"/>
       <c r="H86" s="16"/>
       <c r="I86" s="4"/>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J86" s="4"/>
+    </row>
+    <row r="87" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -2539,8 +2701,9 @@
       <c r="G87" s="16"/>
       <c r="H87" s="16"/>
       <c r="I87" s="4"/>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J87" s="4"/>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -2550,8 +2713,9 @@
       <c r="G88" s="16"/>
       <c r="H88" s="16"/>
       <c r="I88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J88" s="4"/>
+    </row>
+    <row r="89" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -2561,8 +2725,9 @@
       <c r="G89" s="16"/>
       <c r="H89" s="16"/>
       <c r="I89" s="4"/>
-    </row>
-    <row r="90" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J89" s="4"/>
+    </row>
+    <row r="90" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -2572,8 +2737,9 @@
       <c r="G90" s="16"/>
       <c r="H90" s="16"/>
       <c r="I90" s="4"/>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J90" s="4"/>
+    </row>
+    <row r="91" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -2583,8 +2749,9 @@
       <c r="G91" s="16"/>
       <c r="H91" s="16"/>
       <c r="I91" s="4"/>
-    </row>
-    <row r="92" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J91" s="4"/>
+    </row>
+    <row r="92" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -2594,8 +2761,9 @@
       <c r="G92" s="16"/>
       <c r="H92" s="16"/>
       <c r="I92" s="4"/>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J92" s="4"/>
+    </row>
+    <row r="93" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -2605,8 +2773,9 @@
       <c r="G93" s="16"/>
       <c r="H93" s="16"/>
       <c r="I93" s="4"/>
-    </row>
-    <row r="94" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J93" s="4"/>
+    </row>
+    <row r="94" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -2616,8 +2785,9 @@
       <c r="G94" s="16"/>
       <c r="H94" s="16"/>
       <c r="I94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J94" s="4"/>
+    </row>
+    <row r="95" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -2627,8 +2797,9 @@
       <c r="G95" s="16"/>
       <c r="H95" s="16"/>
       <c r="I95" s="4"/>
-    </row>
-    <row r="96" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J95" s="4"/>
+    </row>
+    <row r="96" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -2638,8 +2809,9 @@
       <c r="G96" s="16"/>
       <c r="H96" s="16"/>
       <c r="I96" s="4"/>
-    </row>
-    <row r="97" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J96" s="4"/>
+    </row>
+    <row r="97" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -2649,8 +2821,9 @@
       <c r="G97" s="16"/>
       <c r="H97" s="16"/>
       <c r="I97" s="4"/>
-    </row>
-    <row r="98" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J97" s="4"/>
+    </row>
+    <row r="98" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -2660,8 +2833,9 @@
       <c r="G98" s="16"/>
       <c r="H98" s="16"/>
       <c r="I98" s="4"/>
-    </row>
-    <row r="99" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J98" s="4"/>
+    </row>
+    <row r="99" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -2671,8 +2845,9 @@
       <c r="G99" s="16"/>
       <c r="H99" s="16"/>
       <c r="I99" s="4"/>
-    </row>
-    <row r="100" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J99" s="4"/>
+    </row>
+    <row r="100" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -2682,8 +2857,9 @@
       <c r="G100" s="16"/>
       <c r="H100" s="16"/>
       <c r="I100" s="4"/>
-    </row>
-    <row r="101" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J100" s="4"/>
+    </row>
+    <row r="101" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -2693,8 +2869,9 @@
       <c r="G101" s="16"/>
       <c r="H101" s="16"/>
       <c r="I101" s="4"/>
-    </row>
-    <row r="102" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J101" s="4"/>
+    </row>
+    <row r="102" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2704,8 +2881,9 @@
       <c r="G102" s="16"/>
       <c r="H102" s="16"/>
       <c r="I102" s="4"/>
-    </row>
-    <row r="103" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J102" s="4"/>
+    </row>
+    <row r="103" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2715,8 +2893,9 @@
       <c r="G103" s="16"/>
       <c r="H103" s="16"/>
       <c r="I103" s="4"/>
-    </row>
-    <row r="104" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J103" s="4"/>
+    </row>
+    <row r="104" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2726,8 +2905,9 @@
       <c r="G104" s="16"/>
       <c r="H104" s="16"/>
       <c r="I104" s="4"/>
-    </row>
-    <row r="105" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J104" s="4"/>
+    </row>
+    <row r="105" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2737,8 +2917,9 @@
       <c r="G105" s="16"/>
       <c r="H105" s="16"/>
       <c r="I105" s="4"/>
-    </row>
-    <row r="106" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J105" s="4"/>
+    </row>
+    <row r="106" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2748,8 +2929,9 @@
       <c r="G106" s="16"/>
       <c r="H106" s="16"/>
       <c r="I106" s="4"/>
-    </row>
-    <row r="107" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J106" s="4"/>
+    </row>
+    <row r="107" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2759,8 +2941,9 @@
       <c r="G107" s="16"/>
       <c r="H107" s="16"/>
       <c r="I107" s="4"/>
-    </row>
-    <row r="108" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J107" s="4"/>
+    </row>
+    <row r="108" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2770,8 +2953,9 @@
       <c r="G108" s="16"/>
       <c r="H108" s="16"/>
       <c r="I108" s="4"/>
-    </row>
-    <row r="109" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J108" s="4"/>
+    </row>
+    <row r="109" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2781,8 +2965,9 @@
       <c r="G109" s="16"/>
       <c r="H109" s="16"/>
       <c r="I109" s="4"/>
-    </row>
-    <row r="110" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J109" s="4"/>
+    </row>
+    <row r="110" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2792,8 +2977,9 @@
       <c r="G110" s="16"/>
       <c r="H110" s="16"/>
       <c r="I110" s="4"/>
-    </row>
-    <row r="111" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J110" s="4"/>
+    </row>
+    <row r="111" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2803,8 +2989,9 @@
       <c r="G111" s="16"/>
       <c r="H111" s="16"/>
       <c r="I111" s="4"/>
-    </row>
-    <row r="112" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J111" s="4"/>
+    </row>
+    <row r="112" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2814,8 +3001,9 @@
       <c r="G112" s="16"/>
       <c r="H112" s="16"/>
       <c r="I112" s="4"/>
-    </row>
-    <row r="113" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J112" s="4"/>
+    </row>
+    <row r="113" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2825,8 +3013,9 @@
       <c r="G113" s="16"/>
       <c r="H113" s="16"/>
       <c r="I113" s="4"/>
-    </row>
-    <row r="114" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2836,8 +3025,9 @@
       <c r="G114" s="16"/>
       <c r="H114" s="16"/>
       <c r="I114" s="4"/>
-    </row>
-    <row r="115" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2847,8 +3037,9 @@
       <c r="G115" s="16"/>
       <c r="H115" s="16"/>
       <c r="I115" s="4"/>
-    </row>
-    <row r="116" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J115" s="4"/>
+    </row>
+    <row r="116" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2858,8 +3049,9 @@
       <c r="G116" s="16"/>
       <c r="H116" s="16"/>
       <c r="I116" s="4"/>
-    </row>
-    <row r="117" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J116" s="4"/>
+    </row>
+    <row r="117" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2869,8 +3061,9 @@
       <c r="G117" s="16"/>
       <c r="H117" s="16"/>
       <c r="I117" s="4"/>
-    </row>
-    <row r="118" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J117" s="4"/>
+    </row>
+    <row r="118" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2880,8 +3073,9 @@
       <c r="G118" s="16"/>
       <c r="H118" s="16"/>
       <c r="I118" s="4"/>
-    </row>
-    <row r="119" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J118" s="4"/>
+    </row>
+    <row r="119" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2891,8 +3085,9 @@
       <c r="G119" s="16"/>
       <c r="H119" s="16"/>
       <c r="I119" s="4"/>
-    </row>
-    <row r="120" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J119" s="4"/>
+    </row>
+    <row r="120" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -2902,8 +3097,9 @@
       <c r="G120" s="16"/>
       <c r="H120" s="16"/>
       <c r="I120" s="4"/>
-    </row>
-    <row r="121" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J120" s="4"/>
+    </row>
+    <row r="121" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -2913,8 +3109,9 @@
       <c r="G121" s="16"/>
       <c r="H121" s="16"/>
       <c r="I121" s="4"/>
-    </row>
-    <row r="122" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J121" s="4"/>
+    </row>
+    <row r="122" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -2924,8 +3121,9 @@
       <c r="G122" s="16"/>
       <c r="H122" s="16"/>
       <c r="I122" s="4"/>
-    </row>
-    <row r="123" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J122" s="4"/>
+    </row>
+    <row r="123" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -2935,8 +3133,9 @@
       <c r="G123" s="16"/>
       <c r="H123" s="16"/>
       <c r="I123" s="4"/>
-    </row>
-    <row r="124" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J123" s="4"/>
+    </row>
+    <row r="124" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -2946,8 +3145,9 @@
       <c r="G124" s="16"/>
       <c r="H124" s="16"/>
       <c r="I124" s="4"/>
-    </row>
-    <row r="125" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J124" s="4"/>
+    </row>
+    <row r="125" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -2957,8 +3157,9 @@
       <c r="G125" s="16"/>
       <c r="H125" s="16"/>
       <c r="I125" s="4"/>
-    </row>
-    <row r="126" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J125" s="4"/>
+    </row>
+    <row r="126" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -2968,8 +3169,9 @@
       <c r="G126" s="16"/>
       <c r="H126" s="16"/>
       <c r="I126" s="4"/>
-    </row>
-    <row r="127" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J126" s="4"/>
+    </row>
+    <row r="127" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -2979,8 +3181,9 @@
       <c r="G127" s="16"/>
       <c r="H127" s="16"/>
       <c r="I127" s="4"/>
-    </row>
-    <row r="128" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J127" s="4"/>
+    </row>
+    <row r="128" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -2990,8 +3193,9 @@
       <c r="G128" s="16"/>
       <c r="H128" s="16"/>
       <c r="I128" s="4"/>
-    </row>
-    <row r="129" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J128" s="4"/>
+    </row>
+    <row r="129" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -3001,8 +3205,9 @@
       <c r="G129" s="16"/>
       <c r="H129" s="16"/>
       <c r="I129" s="4"/>
-    </row>
-    <row r="130" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J129" s="4"/>
+    </row>
+    <row r="130" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -3012,8 +3217,9 @@
       <c r="G130" s="16"/>
       <c r="H130" s="16"/>
       <c r="I130" s="4"/>
-    </row>
-    <row r="131" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J130" s="4"/>
+    </row>
+    <row r="131" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -3023,8 +3229,9 @@
       <c r="G131" s="16"/>
       <c r="H131" s="16"/>
       <c r="I131" s="4"/>
-    </row>
-    <row r="132" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J131" s="4"/>
+    </row>
+    <row r="132" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -3034,8 +3241,9 @@
       <c r="G132" s="16"/>
       <c r="H132" s="16"/>
       <c r="I132" s="4"/>
-    </row>
-    <row r="133" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J132" s="4"/>
+    </row>
+    <row r="133" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -3045,8 +3253,9 @@
       <c r="G133" s="16"/>
       <c r="H133" s="16"/>
       <c r="I133" s="4"/>
-    </row>
-    <row r="134" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J133" s="4"/>
+    </row>
+    <row r="134" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -3056,8 +3265,9 @@
       <c r="G134" s="16"/>
       <c r="H134" s="16"/>
       <c r="I134" s="4"/>
-    </row>
-    <row r="135" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J134" s="4"/>
+    </row>
+    <row r="135" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -3067,8 +3277,9 @@
       <c r="G135" s="16"/>
       <c r="H135" s="16"/>
       <c r="I135" s="4"/>
-    </row>
-    <row r="136" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J135" s="4"/>
+    </row>
+    <row r="136" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -3078,8 +3289,9 @@
       <c r="G136" s="16"/>
       <c r="H136" s="16"/>
       <c r="I136" s="4"/>
-    </row>
-    <row r="137" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J136" s="4"/>
+    </row>
+    <row r="137" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -3089,8 +3301,9 @@
       <c r="G137" s="16"/>
       <c r="H137" s="16"/>
       <c r="I137" s="4"/>
-    </row>
-    <row r="138" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J137" s="4"/>
+    </row>
+    <row r="138" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -3100,8 +3313,9 @@
       <c r="G138" s="16"/>
       <c r="H138" s="16"/>
       <c r="I138" s="4"/>
-    </row>
-    <row r="139" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J138" s="4"/>
+    </row>
+    <row r="139" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -3111,8 +3325,9 @@
       <c r="G139" s="16"/>
       <c r="H139" s="16"/>
       <c r="I139" s="4"/>
-    </row>
-    <row r="140" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J139" s="4"/>
+    </row>
+    <row r="140" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -3122,8 +3337,9 @@
       <c r="G140" s="16"/>
       <c r="H140" s="16"/>
       <c r="I140" s="4"/>
-    </row>
-    <row r="141" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J140" s="4"/>
+    </row>
+    <row r="141" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -3133,8 +3349,9 @@
       <c r="G141" s="16"/>
       <c r="H141" s="16"/>
       <c r="I141" s="4"/>
-    </row>
-    <row r="142" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J141" s="4"/>
+    </row>
+    <row r="142" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -3144,8 +3361,9 @@
       <c r="G142" s="16"/>
       <c r="H142" s="16"/>
       <c r="I142" s="4"/>
-    </row>
-    <row r="143" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J142" s="4"/>
+    </row>
+    <row r="143" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -3155,8 +3373,9 @@
       <c r="G143" s="16"/>
       <c r="H143" s="16"/>
       <c r="I143" s="4"/>
-    </row>
-    <row r="144" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J143" s="4"/>
+    </row>
+    <row r="144" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -3166,8 +3385,9 @@
       <c r="G144" s="16"/>
       <c r="H144" s="16"/>
       <c r="I144" s="4"/>
-    </row>
-    <row r="145" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J144" s="4"/>
+    </row>
+    <row r="145" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -3177,8 +3397,9 @@
       <c r="G145" s="16"/>
       <c r="H145" s="16"/>
       <c r="I145" s="4"/>
-    </row>
-    <row r="146" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J145" s="4"/>
+    </row>
+    <row r="146" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -3188,8 +3409,9 @@
       <c r="G146" s="16"/>
       <c r="H146" s="16"/>
       <c r="I146" s="4"/>
-    </row>
-    <row r="147" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J146" s="4"/>
+    </row>
+    <row r="147" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -3199,8 +3421,9 @@
       <c r="G147" s="16"/>
       <c r="H147" s="16"/>
       <c r="I147" s="4"/>
-    </row>
-    <row r="148" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J147" s="4"/>
+    </row>
+    <row r="148" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -3210,8 +3433,9 @@
       <c r="G148" s="16"/>
       <c r="H148" s="16"/>
       <c r="I148" s="4"/>
-    </row>
-    <row r="149" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J148" s="4"/>
+    </row>
+    <row r="149" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -3221,8 +3445,9 @@
       <c r="G149" s="16"/>
       <c r="H149" s="16"/>
       <c r="I149" s="4"/>
-    </row>
-    <row r="150" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J149" s="4"/>
+    </row>
+    <row r="150" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -3232,8 +3457,9 @@
       <c r="G150" s="16"/>
       <c r="H150" s="16"/>
       <c r="I150" s="4"/>
-    </row>
-    <row r="151" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J150" s="4"/>
+    </row>
+    <row r="151" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -3243,8 +3469,9 @@
       <c r="G151" s="16"/>
       <c r="H151" s="16"/>
       <c r="I151" s="4"/>
-    </row>
-    <row r="152" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J151" s="4"/>
+    </row>
+    <row r="152" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -3254,8 +3481,9 @@
       <c r="G152" s="16"/>
       <c r="H152" s="16"/>
       <c r="I152" s="4"/>
-    </row>
-    <row r="153" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J152" s="4"/>
+    </row>
+    <row r="153" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -3265,8 +3493,9 @@
       <c r="G153" s="16"/>
       <c r="H153" s="16"/>
       <c r="I153" s="4"/>
-    </row>
-    <row r="154" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J153" s="4"/>
+    </row>
+    <row r="154" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -3276,8 +3505,9 @@
       <c r="G154" s="16"/>
       <c r="H154" s="16"/>
       <c r="I154" s="4"/>
-    </row>
-    <row r="155" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J154" s="4"/>
+    </row>
+    <row r="155" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -3287,8 +3517,9 @@
       <c r="G155" s="16"/>
       <c r="H155" s="16"/>
       <c r="I155" s="4"/>
-    </row>
-    <row r="156" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J155" s="4"/>
+    </row>
+    <row r="156" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -3298,8 +3529,9 @@
       <c r="G156" s="16"/>
       <c r="H156" s="16"/>
       <c r="I156" s="4"/>
-    </row>
-    <row r="157" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J156" s="4"/>
+    </row>
+    <row r="157" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -3309,8 +3541,9 @@
       <c r="G157" s="16"/>
       <c r="H157" s="16"/>
       <c r="I157" s="4"/>
-    </row>
-    <row r="158" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J157" s="4"/>
+    </row>
+    <row r="158" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -3320,8 +3553,9 @@
       <c r="G158" s="16"/>
       <c r="H158" s="16"/>
       <c r="I158" s="4"/>
-    </row>
-    <row r="159" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J158" s="4"/>
+    </row>
+    <row r="159" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -3331,8 +3565,9 @@
       <c r="G159" s="16"/>
       <c r="H159" s="16"/>
       <c r="I159" s="4"/>
-    </row>
-    <row r="160" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -3342,8 +3577,9 @@
       <c r="G160" s="16"/>
       <c r="H160" s="16"/>
       <c r="I160" s="4"/>
-    </row>
-    <row r="161" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -3353,8 +3589,9 @@
       <c r="G161" s="16"/>
       <c r="H161" s="16"/>
       <c r="I161" s="4"/>
-    </row>
-    <row r="162" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -3364,8 +3601,9 @@
       <c r="G162" s="16"/>
       <c r="H162" s="16"/>
       <c r="I162" s="4"/>
-    </row>
-    <row r="163" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J162" s="4"/>
+    </row>
+    <row r="163" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -3375,8 +3613,9 @@
       <c r="G163" s="16"/>
       <c r="H163" s="16"/>
       <c r="I163" s="4"/>
-    </row>
-    <row r="164" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J163" s="4"/>
+    </row>
+    <row r="164" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -3386,8 +3625,9 @@
       <c r="G164" s="16"/>
       <c r="H164" s="16"/>
       <c r="I164" s="4"/>
-    </row>
-    <row r="165" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J164" s="4"/>
+    </row>
+    <row r="165" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -3397,8 +3637,9 @@
       <c r="G165" s="16"/>
       <c r="H165" s="16"/>
       <c r="I165" s="4"/>
-    </row>
-    <row r="166" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -3408,8 +3649,9 @@
       <c r="G166" s="16"/>
       <c r="H166" s="16"/>
       <c r="I166" s="4"/>
-    </row>
-    <row r="167" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J166" s="4"/>
+    </row>
+    <row r="167" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -3419,8 +3661,9 @@
       <c r="G167" s="16"/>
       <c r="H167" s="16"/>
       <c r="I167" s="4"/>
-    </row>
-    <row r="168" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J167" s="4"/>
+    </row>
+    <row r="168" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -3430,8 +3673,9 @@
       <c r="G168" s="16"/>
       <c r="H168" s="16"/>
       <c r="I168" s="4"/>
-    </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J168" s="4"/>
+    </row>
+    <row r="169" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -3441,8 +3685,9 @@
       <c r="G169" s="16"/>
       <c r="H169" s="16"/>
       <c r="I169" s="4"/>
-    </row>
-    <row r="170" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J169" s="4"/>
+    </row>
+    <row r="170" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -3452,8 +3697,9 @@
       <c r="G170" s="16"/>
       <c r="H170" s="16"/>
       <c r="I170" s="4"/>
-    </row>
-    <row r="171" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J170" s="4"/>
+    </row>
+    <row r="171" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -3463,8 +3709,9 @@
       <c r="G171" s="16"/>
       <c r="H171" s="16"/>
       <c r="I171" s="4"/>
-    </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J171" s="4"/>
+    </row>
+    <row r="172" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -3474,8 +3721,9 @@
       <c r="G172" s="16"/>
       <c r="H172" s="16"/>
       <c r="I172" s="4"/>
-    </row>
-    <row r="173" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J172" s="4"/>
+    </row>
+    <row r="173" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -3485,8 +3733,9 @@
       <c r="G173" s="16"/>
       <c r="H173" s="16"/>
       <c r="I173" s="4"/>
-    </row>
-    <row r="174" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J173" s="4"/>
+    </row>
+    <row r="174" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -3496,8 +3745,9 @@
       <c r="G174" s="16"/>
       <c r="H174" s="16"/>
       <c r="I174" s="4"/>
-    </row>
-    <row r="175" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J174" s="4"/>
+    </row>
+    <row r="175" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -3507,8 +3757,9 @@
       <c r="G175" s="16"/>
       <c r="H175" s="16"/>
       <c r="I175" s="4"/>
-    </row>
-    <row r="176" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J175" s="4"/>
+    </row>
+    <row r="176" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -3518,8 +3769,9 @@
       <c r="G176" s="16"/>
       <c r="H176" s="16"/>
       <c r="I176" s="4"/>
-    </row>
-    <row r="177" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J176" s="4"/>
+    </row>
+    <row r="177" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -3529,8 +3781,9 @@
       <c r="G177" s="16"/>
       <c r="H177" s="16"/>
       <c r="I177" s="4"/>
-    </row>
-    <row r="178" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J177" s="4"/>
+    </row>
+    <row r="178" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -3540,8 +3793,9 @@
       <c r="G178" s="16"/>
       <c r="H178" s="16"/>
       <c r="I178" s="4"/>
-    </row>
-    <row r="179" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J178" s="4"/>
+    </row>
+    <row r="179" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -3551,8 +3805,9 @@
       <c r="G179" s="16"/>
       <c r="H179" s="16"/>
       <c r="I179" s="4"/>
-    </row>
-    <row r="180" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J179" s="4"/>
+    </row>
+    <row r="180" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -3562,8 +3817,9 @@
       <c r="G180" s="16"/>
       <c r="H180" s="16"/>
       <c r="I180" s="4"/>
-    </row>
-    <row r="181" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J180" s="4"/>
+    </row>
+    <row r="181" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -3573,8 +3829,9 @@
       <c r="G181" s="16"/>
       <c r="H181" s="16"/>
       <c r="I181" s="4"/>
-    </row>
-    <row r="182" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J181" s="4"/>
+    </row>
+    <row r="182" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -3584,8 +3841,9 @@
       <c r="G182" s="16"/>
       <c r="H182" s="16"/>
       <c r="I182" s="4"/>
-    </row>
-    <row r="183" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J182" s="4"/>
+    </row>
+    <row r="183" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -3595,8 +3853,9 @@
       <c r="G183" s="16"/>
       <c r="H183" s="16"/>
       <c r="I183" s="4"/>
-    </row>
-    <row r="184" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J183" s="4"/>
+    </row>
+    <row r="184" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -3606,8 +3865,9 @@
       <c r="G184" s="16"/>
       <c r="H184" s="16"/>
       <c r="I184" s="4"/>
-    </row>
-    <row r="185" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J184" s="4"/>
+    </row>
+    <row r="185" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -3617,8 +3877,9 @@
       <c r="G185" s="16"/>
       <c r="H185" s="16"/>
       <c r="I185" s="4"/>
-    </row>
-    <row r="186" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J185" s="4"/>
+    </row>
+    <row r="186" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -3628,8 +3889,9 @@
       <c r="G186" s="16"/>
       <c r="H186" s="16"/>
       <c r="I186" s="4"/>
-    </row>
-    <row r="187" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J186" s="4"/>
+    </row>
+    <row r="187" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -3639,8 +3901,9 @@
       <c r="G187" s="16"/>
       <c r="H187" s="16"/>
       <c r="I187" s="4"/>
-    </row>
-    <row r="188" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J187" s="4"/>
+    </row>
+    <row r="188" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -3650,8 +3913,9 @@
       <c r="G188" s="16"/>
       <c r="H188" s="16"/>
       <c r="I188" s="4"/>
-    </row>
-    <row r="189" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J188" s="4"/>
+    </row>
+    <row r="189" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -3661,8 +3925,9 @@
       <c r="G189" s="16"/>
       <c r="H189" s="16"/>
       <c r="I189" s="4"/>
-    </row>
-    <row r="190" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J189" s="4"/>
+    </row>
+    <row r="190" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -3672,8 +3937,9 @@
       <c r="G190" s="16"/>
       <c r="H190" s="16"/>
       <c r="I190" s="4"/>
-    </row>
-    <row r="191" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J190" s="4"/>
+    </row>
+    <row r="191" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -3683,8 +3949,9 @@
       <c r="G191" s="16"/>
       <c r="H191" s="16"/>
       <c r="I191" s="4"/>
-    </row>
-    <row r="192" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J191" s="4"/>
+    </row>
+    <row r="192" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -3694,8 +3961,9 @@
       <c r="G192" s="16"/>
       <c r="H192" s="16"/>
       <c r="I192" s="4"/>
-    </row>
-    <row r="193" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J192" s="4"/>
+    </row>
+    <row r="193" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -3705,8 +3973,9 @@
       <c r="G193" s="16"/>
       <c r="H193" s="16"/>
       <c r="I193" s="4"/>
-    </row>
-    <row r="194" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J193" s="4"/>
+    </row>
+    <row r="194" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -3716,8 +3985,9 @@
       <c r="G194" s="16"/>
       <c r="H194" s="16"/>
       <c r="I194" s="4"/>
-    </row>
-    <row r="195" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J194" s="4"/>
+    </row>
+    <row r="195" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -3727,8 +3997,9 @@
       <c r="G195" s="16"/>
       <c r="H195" s="16"/>
       <c r="I195" s="4"/>
-    </row>
-    <row r="196" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J195" s="4"/>
+    </row>
+    <row r="196" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -3738,8 +4009,9 @@
       <c r="G196" s="16"/>
       <c r="H196" s="16"/>
       <c r="I196" s="4"/>
-    </row>
-    <row r="197" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J196" s="4"/>
+    </row>
+    <row r="197" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -3749,8 +4021,9 @@
       <c r="G197" s="16"/>
       <c r="H197" s="16"/>
       <c r="I197" s="4"/>
-    </row>
-    <row r="198" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J197" s="4"/>
+    </row>
+    <row r="198" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -3760,8 +4033,9 @@
       <c r="G198" s="16"/>
       <c r="H198" s="16"/>
       <c r="I198" s="4"/>
-    </row>
-    <row r="199" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J198" s="4"/>
+    </row>
+    <row r="199" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -3771,8 +4045,9 @@
       <c r="G199" s="16"/>
       <c r="H199" s="16"/>
       <c r="I199" s="4"/>
-    </row>
-    <row r="200" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J199" s="4"/>
+    </row>
+    <row r="200" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -3782,8 +4057,9 @@
       <c r="G200" s="16"/>
       <c r="H200" s="16"/>
       <c r="I200" s="4"/>
-    </row>
-    <row r="201" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J200" s="4"/>
+    </row>
+    <row r="201" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -3793,8 +4069,9 @@
       <c r="G201" s="16"/>
       <c r="H201" s="16"/>
       <c r="I201" s="4"/>
-    </row>
-    <row r="202" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J201" s="4"/>
+    </row>
+    <row r="202" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -3804,8 +4081,9 @@
       <c r="G202" s="16"/>
       <c r="H202" s="16"/>
       <c r="I202" s="4"/>
-    </row>
-    <row r="203" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J202" s="4"/>
+    </row>
+    <row r="203" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -3815,8 +4093,9 @@
       <c r="G203" s="16"/>
       <c r="H203" s="16"/>
       <c r="I203" s="4"/>
-    </row>
-    <row r="204" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J203" s="4"/>
+    </row>
+    <row r="204" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -3826,8 +4105,9 @@
       <c r="G204" s="16"/>
       <c r="H204" s="16"/>
       <c r="I204" s="4"/>
-    </row>
-    <row r="205" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J204" s="4"/>
+    </row>
+    <row r="205" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -3837,8 +4117,9 @@
       <c r="G205" s="16"/>
       <c r="H205" s="16"/>
       <c r="I205" s="4"/>
-    </row>
-    <row r="206" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J205" s="4"/>
+    </row>
+    <row r="206" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -3848,8 +4129,9 @@
       <c r="G206" s="16"/>
       <c r="H206" s="16"/>
       <c r="I206" s="4"/>
-    </row>
-    <row r="207" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J206" s="4"/>
+    </row>
+    <row r="207" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -3859,8 +4141,9 @@
       <c r="G207" s="16"/>
       <c r="H207" s="16"/>
       <c r="I207" s="4"/>
-    </row>
-    <row r="208" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J207" s="4"/>
+    </row>
+    <row r="208" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -3870,8 +4153,9 @@
       <c r="G208" s="16"/>
       <c r="H208" s="16"/>
       <c r="I208" s="4"/>
-    </row>
-    <row r="209" spans="1:9" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J208" s="4"/>
+    </row>
+    <row r="209" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -3881,39 +4165,41 @@
       <c r="G209" s="16"/>
       <c r="H209" s="16"/>
       <c r="I209" s="4"/>
+      <c r="J209" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I209" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I209">
-      <sortCondition ref="A1:A209"/>
+  <autoFilter ref="A1:J66" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J66">
+      <sortCondition ref="I1:I66"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" xr:uid="{C1AC33C7-9352-43D5-9FAE-9573A124480E}"/>
-    <hyperlink ref="A32" r:id="rId2" xr:uid="{988E1AF2-048C-4675-B7E9-158DEC6F0EB9}"/>
-    <hyperlink ref="A63" r:id="rId3" xr:uid="{1A8FC024-D060-453A-88D5-5BB10765757D}"/>
-    <hyperlink ref="A39" r:id="rId4" xr:uid="{9B7F8E12-74D8-4829-82E5-486EA94FC3F3}"/>
-    <hyperlink ref="A51" r:id="rId5" xr:uid="{68EA85E5-1704-46E4-B10E-5740522B7A29}"/>
-    <hyperlink ref="A66" r:id="rId6" xr:uid="{667D1302-41A1-40F8-9BB5-932087B61568}"/>
-    <hyperlink ref="A61" r:id="rId7" xr:uid="{FF9C50F8-94BF-4F80-AF17-DCD10A4ACB1E}"/>
-    <hyperlink ref="A35" r:id="rId8" xr:uid="{20EA5F61-87D8-4821-985D-B3D10843A5D7}"/>
-    <hyperlink ref="A47" r:id="rId9" xr:uid="{E6593F03-B08E-4F65-BD84-49C53B7FF831}"/>
-    <hyperlink ref="E63" r:id="rId10" xr:uid="{369C234F-0669-45B7-8AB6-49661C5F7C20}"/>
-    <hyperlink ref="E39" r:id="rId11" display="实习 图像处理" xr:uid="{FD2B76B6-BCDE-44EB-9439-847F45109FAF}"/>
-    <hyperlink ref="E21" r:id="rId12" xr:uid="{38CA5857-C0F7-412F-A6D9-F9548E44F58B}"/>
-    <hyperlink ref="E51" r:id="rId13" xr:uid="{85ED1626-0DE2-4D12-9AB6-26AF0E827BC9}"/>
-    <hyperlink ref="A49" r:id="rId14" xr:uid="{C060DAF0-B834-4BBA-ADE2-887A9A1CE5AD}"/>
-    <hyperlink ref="A50" r:id="rId15" xr:uid="{3BD18FE8-068D-40A5-AFB1-0A49C3728988}"/>
-    <hyperlink ref="E50" r:id="rId16" xr:uid="{AE5BC3FC-E31E-4A1A-8954-AFA378766A54}"/>
-    <hyperlink ref="E49" r:id="rId17" xr:uid="{C9448A5C-A2D4-4C47-B280-BFBF848D3886}"/>
-    <hyperlink ref="A65" r:id="rId18" xr:uid="{BE0DCA27-BC9B-4AA1-85FD-618E911D78FF}"/>
-    <hyperlink ref="A36" r:id="rId19" xr:uid="{3B3B985A-DB1B-4134-A064-3DF04DD0CD84}"/>
-    <hyperlink ref="A37" r:id="rId20" xr:uid="{2FD13D75-BEC9-48D8-A564-AD9D277DF8C5}"/>
-    <hyperlink ref="A52" r:id="rId21" location="/" xr:uid="{8B8F401A-A4B0-42EA-A3AF-FF55216F99EE}"/>
-    <hyperlink ref="A53" r:id="rId22" location="/" xr:uid="{CEC53D48-DE75-4DE6-8F4A-EE35BBECD2A7}"/>
-    <hyperlink ref="A64" r:id="rId23" xr:uid="{D2405A0E-0CA0-4846-8E96-EF28F477E92A}"/>
-    <hyperlink ref="A55" r:id="rId24" xr:uid="{8CD57A59-BB2F-4832-924A-83CE5DA867E4}"/>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{C1AC33C7-9352-43D5-9FAE-9573A124480E}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{988E1AF2-048C-4675-B7E9-158DEC6F0EB9}"/>
+    <hyperlink ref="A28" r:id="rId3" xr:uid="{1A8FC024-D060-453A-88D5-5BB10765757D}"/>
+    <hyperlink ref="A17" r:id="rId4" xr:uid="{9B7F8E12-74D8-4829-82E5-486EA94FC3F3}"/>
+    <hyperlink ref="A20" r:id="rId5" xr:uid="{68EA85E5-1704-46E4-B10E-5740522B7A29}"/>
+    <hyperlink ref="A29" r:id="rId6" xr:uid="{667D1302-41A1-40F8-9BB5-932087B61568}"/>
+    <hyperlink ref="A27" r:id="rId7" xr:uid="{FF9C50F8-94BF-4F80-AF17-DCD10A4ACB1E}"/>
+    <hyperlink ref="A7" r:id="rId8" xr:uid="{20EA5F61-87D8-4821-985D-B3D10843A5D7}"/>
+    <hyperlink ref="A60" r:id="rId9" xr:uid="{E6593F03-B08E-4F65-BD84-49C53B7FF831}"/>
+    <hyperlink ref="E28" r:id="rId10" xr:uid="{369C234F-0669-45B7-8AB6-49661C5F7C20}"/>
+    <hyperlink ref="E17" r:id="rId11" display="实习 图像处理" xr:uid="{FD2B76B6-BCDE-44EB-9439-847F45109FAF}"/>
+    <hyperlink ref="E10" r:id="rId12" xr:uid="{38CA5857-C0F7-412F-A6D9-F9548E44F58B}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{85ED1626-0DE2-4D12-9AB6-26AF0E827BC9}"/>
+    <hyperlink ref="A18" r:id="rId14" xr:uid="{C060DAF0-B834-4BBA-ADE2-887A9A1CE5AD}"/>
+    <hyperlink ref="A19" r:id="rId15" xr:uid="{3BD18FE8-068D-40A5-AFB1-0A49C3728988}"/>
+    <hyperlink ref="E19" r:id="rId16" xr:uid="{AE5BC3FC-E31E-4A1A-8954-AFA378766A54}"/>
+    <hyperlink ref="E18" r:id="rId17" xr:uid="{C9448A5C-A2D4-4C47-B280-BFBF848D3886}"/>
+    <hyperlink ref="A66" r:id="rId18" xr:uid="{BE0DCA27-BC9B-4AA1-85FD-618E911D78FF}"/>
+    <hyperlink ref="A8" r:id="rId19" xr:uid="{3B3B985A-DB1B-4134-A064-3DF04DD0CD84}"/>
+    <hyperlink ref="A9" r:id="rId20" xr:uid="{2FD13D75-BEC9-48D8-A564-AD9D277DF8C5}"/>
+    <hyperlink ref="A21" r:id="rId21" location="/" xr:uid="{8B8F401A-A4B0-42EA-A3AF-FF55216F99EE}"/>
+    <hyperlink ref="A22" r:id="rId22" location="/" xr:uid="{CEC53D48-DE75-4DE6-8F4A-EE35BBECD2A7}"/>
+    <hyperlink ref="A65" r:id="rId23" xr:uid="{D2405A0E-0CA0-4846-8E96-EF28F477E92A}"/>
+    <hyperlink ref="A62" r:id="rId24" xr:uid="{8CD57A59-BB2F-4832-924A-83CE5DA867E4}"/>
+    <hyperlink ref="A59" r:id="rId25" xr:uid="{A79B7081-31A4-497F-81A5-A4658877837F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Files/公司名单.xlsx
+++ b/Files/公司名单.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philip\Notes\技术笔记\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1496E33-05B6-4EBC-8D21-220D3C6396A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756564A-5FEC-495D-BAFF-B32A52FD8B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="173">
   <si>
     <t>企业名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -540,6 +540,86 @@
   <si>
     <t>拓斯达</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botsync</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hivebotics</t>
+  </si>
+  <si>
+    <t>Reachbots Automation</t>
+  </si>
+  <si>
+    <t>BeeX Autonomous</t>
+  </si>
+  <si>
+    <t>Movel AI Pte Ltd</t>
+  </si>
+  <si>
+    <t>CTRL Robotics pte ltd</t>
+  </si>
+  <si>
+    <t>CleanHeights Robotics</t>
+  </si>
+  <si>
+    <t>Hand Plus Robotics</t>
+  </si>
+  <si>
+    <t>Sensory Robotics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaajTek Pte Ltd</t>
+  </si>
+  <si>
+    <t>Gleematic A.I.</t>
+  </si>
+  <si>
+    <t>FlyFarm Worldwide</t>
+  </si>
+  <si>
+    <t>Vivo Surgical</t>
+  </si>
+  <si>
+    <t>General Systems</t>
+  </si>
+  <si>
+    <t>Move AI Pte Ltd</t>
+  </si>
+  <si>
+    <t>Augmentus</t>
+  </si>
+  <si>
+    <t>Roceso Technologies</t>
+  </si>
+  <si>
+    <t>Symbian: MeeYoo</t>
+  </si>
+  <si>
+    <t>Nife</t>
+  </si>
+  <si>
+    <t>Opsis Emotion A.I.</t>
+  </si>
+  <si>
+    <t>Variantz</t>
+  </si>
+  <si>
+    <t>Xnergy</t>
+  </si>
+  <si>
+    <t>ARTICARES PTE LTD</t>
+  </si>
+  <si>
+    <t>RoPlus Pte Ltd</t>
+  </si>
+  <si>
+    <t>Crown Digital</t>
+  </si>
+  <si>
+    <t>Blu Venture Studios</t>
   </si>
 </sst>
 </file>
@@ -975,13 +1055,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.21875" style="2" customWidth="1"/>
@@ -2560,7 +2640,9 @@
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
+      <c r="A76" s="4" t="s">
+        <v>147</v>
+      </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -2572,7 +2654,9 @@
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
+      <c r="A77" s="4" t="s">
+        <v>148</v>
+      </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -2584,7 +2668,9 @@
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
+      <c r="A78" s="4" t="s">
+        <v>149</v>
+      </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -2596,7 +2682,9 @@
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="4"/>
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -2608,7 +2696,9 @@
       <c r="J79" s="4"/>
     </row>
     <row r="80" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="4"/>
+      <c r="A80" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -2620,7 +2710,9 @@
       <c r="J80" s="4"/>
     </row>
     <row r="81" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
+      <c r="A81" s="4" t="s">
+        <v>152</v>
+      </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -2632,7 +2724,9 @@
       <c r="J81" s="4"/>
     </row>
     <row r="82" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -2644,7 +2738,9 @@
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
+      <c r="A83" s="4" t="s">
+        <v>154</v>
+      </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -2656,7 +2752,9 @@
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
+      <c r="A84" s="4" t="s">
+        <v>155</v>
+      </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -2668,7 +2766,9 @@
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
+      <c r="A85" s="4" t="s">
+        <v>156</v>
+      </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -2680,7 +2780,9 @@
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
+      <c r="A86" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -2692,7 +2794,9 @@
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="4"/>
+      <c r="A87" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -2704,7 +2808,9 @@
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="4"/>
+      <c r="A88" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -2716,7 +2822,9 @@
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="4"/>
+      <c r="A89" s="4" t="s">
+        <v>160</v>
+      </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -2728,7 +2836,9 @@
       <c r="J89" s="4"/>
     </row>
     <row r="90" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4" t="s">
+        <v>161</v>
+      </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -2740,7 +2850,9 @@
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="4"/>
+      <c r="A91" s="4" t="s">
+        <v>162</v>
+      </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -2752,7 +2864,9 @@
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="4"/>
+      <c r="A92" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -2764,7 +2878,9 @@
       <c r="J92" s="4"/>
     </row>
     <row r="93" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="4"/>
+      <c r="A93" s="4" t="s">
+        <v>164</v>
+      </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
@@ -2776,7 +2892,9 @@
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="4"/>
+      <c r="A94" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
@@ -2788,7 +2906,9 @@
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="4"/>
+      <c r="A95" s="4" t="s">
+        <v>166</v>
+      </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -2800,7 +2920,9 @@
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="4"/>
+      <c r="A96" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
@@ -2812,7 +2934,9 @@
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="4"/>
+      <c r="A97" s="4" t="s">
+        <v>168</v>
+      </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
@@ -2824,7 +2948,9 @@
       <c r="J97" s="4"/>
     </row>
     <row r="98" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="4"/>
+      <c r="A98" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
@@ -2836,7 +2962,9 @@
       <c r="J98" s="4"/>
     </row>
     <row r="99" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4"/>
+      <c r="A99" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
@@ -2848,7 +2976,9 @@
       <c r="J99" s="4"/>
     </row>
     <row r="100" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>171</v>
+      </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
@@ -2860,7 +2990,9 @@
       <c r="J100" s="4"/>
     </row>
     <row r="101" spans="1:10" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="4"/>
+      <c r="A101" s="4" t="s">
+        <v>172</v>
+      </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>

--- a/Files/公司名单.xlsx
+++ b/Files/公司名单.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Philip\Notes\技术笔记\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A756564A-5FEC-495D-BAFF-B32A52FD8B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681AABF3-A463-4CBE-8F2E-BB184EA11A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
